--- a/Would Mr. Market sing FED's songs/data/New Microsoft Excel Worksheet.xlsx
+++ b/Would Mr. Market sing FED's songs/data/New Microsoft Excel Worksheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F145322-16CE-4A06-86F7-5EDE993530CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B33298E-6F0F-4AD6-9468-C4BC4C426F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,8 +335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
